--- a/polls/ICRA20KeynotesandPlenaries.xlsx
+++ b/polls/ICRA20KeynotesandPlenaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5222FA0-DF9C-477D-8975-FE078425AC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2E3CE8-8893-4688-A061-903A738B19BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Genre</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Toby Walsh</t>
+  </si>
+  <si>
+    <t>Nr</t>
   </si>
 </sst>
 </file>
@@ -578,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35065A09-DE50-40A4-9831-2C49AD8A0942}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -604,7 +607,9 @@
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -628,7 +633,9 @@
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>10001</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -652,7 +659,9 @@
       <c r="E3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>10002</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -676,7 +685,9 @@
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>10003</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -700,7 +711,9 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>10004</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -724,7 +737,9 @@
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>10005</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -748,7 +763,9 @@
       <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>10006</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -772,7 +789,9 @@
       <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>10007</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -796,7 +815,9 @@
       <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <v>10008</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -820,7 +841,9 @@
       <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <v>10009</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -844,7 +867,9 @@
       <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>10010</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -868,7 +893,9 @@
       <c r="E12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>10011</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>

--- a/polls/ICRA20KeynotesandPlenaries.xlsx
+++ b/polls/ICRA20KeynotesandPlenaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akdba\Desktop\mysite\polls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2E3CE8-8893-4688-A061-903A738B19BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B319C156-878B-4335-98EC-8FE9EBC1B29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A409DE9B-95F8-4915-A0F8-147B34139FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,14 +581,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35065A09-DE50-40A4-9831-2C49AD8A0942}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
@@ -607,7 +608,7 @@
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="3"/>
